--- a/pesquisas.xlsx
+++ b/pesquisas.xlsx
@@ -298,37 +298,37 @@
     <t>cenário 1 - estimulada - 1º turno</t>
   </si>
   <si>
+    <t>973</t>
+  </si>
+  <si>
+    <t>706</t>
+  </si>
+  <si>
     <t>289</t>
   </si>
   <si>
-    <t>973</t>
-  </si>
-  <si>
-    <t>706</t>
-  </si>
-  <si>
     <t>1563</t>
   </si>
   <si>
+    <t>Lula</t>
+  </si>
+  <si>
+    <t>Bolsonaro</t>
+  </si>
+  <si>
     <t>Ciro</t>
   </si>
   <si>
-    <t>Lula</t>
-  </si>
-  <si>
-    <t>Bolsonaro</t>
-  </si>
-  <si>
     <t>Simone Tebet</t>
   </si>
   <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>sem partido</t>
+  </si>
+  <si>
     <t>PDT</t>
-  </si>
-  <si>
-    <t>PT</t>
-  </si>
-  <si>
-    <t>sem partido</t>
   </si>
   <si>
     <t>PL</t>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="X2">
-        <v>6</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -891,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="X3">
-        <v>41</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="X4">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -1000,19 +1000,19 @@
         <v>91</v>
       </c>
       <c r="T5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="U5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="V5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -1062,13 +1062,13 @@
         <v>91</v>
       </c>
       <c r="T6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="U6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="V6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="X7">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -1183,13 +1183,13 @@
         <v>91</v>
       </c>
       <c r="T8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="U8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="V8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="W8">
         <v>0</v>
@@ -1242,13 +1242,13 @@
         <v>91</v>
       </c>
       <c r="T9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="U9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="V9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="W9">
         <v>0</v>
@@ -1301,13 +1301,13 @@
         <v>91</v>
       </c>
       <c r="T10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="U10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="V10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="W10">
         <v>0</v>
@@ -1363,19 +1363,19 @@
         <v>91</v>
       </c>
       <c r="T11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="V11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>22</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:24">
@@ -1425,19 +1425,19 @@
         <v>91</v>
       </c>
       <c r="T12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="U12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="V12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:24">
@@ -1487,19 +1487,19 @@
         <v>91</v>
       </c>
       <c r="T13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="U13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="V13" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:24">
@@ -1555,19 +1555,19 @@
         <v>91</v>
       </c>
       <c r="T14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="V14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:24">
@@ -1623,13 +1623,13 @@
         <v>91</v>
       </c>
       <c r="T15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="U15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="V15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="W15">
         <v>0</v>
@@ -1691,19 +1691,19 @@
         <v>91</v>
       </c>
       <c r="T16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="U16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="V16" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:24">
@@ -1759,19 +1759,19 @@
         <v>91</v>
       </c>
       <c r="T17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="U17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="V17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:24">
@@ -1827,19 +1827,19 @@
         <v>91</v>
       </c>
       <c r="T18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="U18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="V18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:24">
@@ -1895,19 +1895,19 @@
         <v>91</v>
       </c>
       <c r="T19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="U19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="V19" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:24">
@@ -1963,19 +1963,19 @@
         <v>91</v>
       </c>
       <c r="T20" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="U20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="V20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
       <c r="X20">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:24">
@@ -2031,19 +2031,19 @@
         <v>91</v>
       </c>
       <c r="T21" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="U21" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="V21" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21">
-        <v>2</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:24">
@@ -2105,13 +2105,13 @@
         <v>100</v>
       </c>
       <c r="V22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="W22">
         <v>0</v>
       </c>
       <c r="X22">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:24">
@@ -2167,19 +2167,19 @@
         <v>92</v>
       </c>
       <c r="T23" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="U23" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="V23" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
-        <v>47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:24">
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="X24">
-        <v>8</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:24">
@@ -2303,19 +2303,19 @@
         <v>92</v>
       </c>
       <c r="T25" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="U25" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="V25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:24">
@@ -2371,19 +2371,19 @@
         <v>93</v>
       </c>
       <c r="T26" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="U26" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="V26" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
       <c r="X26">
-        <v>29</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:24">
@@ -2445,13 +2445,13 @@
         <v>99</v>
       </c>
       <c r="V27" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="W27">
         <v>0</v>
       </c>
       <c r="X27">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:24">
@@ -2507,19 +2507,19 @@
         <v>93</v>
       </c>
       <c r="T28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="V28" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
       <c r="X28">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:24">
@@ -2587,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="X29">
-        <v>8</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:24">
@@ -2717,13 +2717,13 @@
         <v>100</v>
       </c>
       <c r="V31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="W31">
         <v>0</v>
       </c>
       <c r="X31">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:24">
@@ -2791,7 +2791,7 @@
         <v>0</v>
       </c>
       <c r="X32">
-        <v>7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:24">
@@ -2853,13 +2853,13 @@
         <v>99</v>
       </c>
       <c r="V33" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
       <c r="X33">
-        <v>47</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:24">
@@ -2915,19 +2915,19 @@
         <v>91</v>
       </c>
       <c r="T34" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="U34" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="V34" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="W34">
         <v>0</v>
       </c>
       <c r="X34">
-        <v>45</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:24">
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="X35">
-        <v>9</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:24">
@@ -3051,10 +3051,10 @@
         <v>91</v>
       </c>
       <c r="T36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="U36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="V36" t="s">
         <v>105</v>
@@ -3119,19 +3119,19 @@
         <v>91</v>
       </c>
       <c r="T37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="V37" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="W37">
         <v>0</v>
       </c>
       <c r="X37">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:24">
@@ -3187,19 +3187,19 @@
         <v>93</v>
       </c>
       <c r="T38" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="U38" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="V38" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="W38">
         <v>0</v>
       </c>
       <c r="X38">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:24">
@@ -3255,19 +3255,19 @@
         <v>93</v>
       </c>
       <c r="T39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="V39" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="W39">
         <v>0</v>
       </c>
       <c r="X39">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:24">
@@ -3323,13 +3323,13 @@
         <v>93</v>
       </c>
       <c r="T40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="U40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="V40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="W40">
         <v>0</v>
@@ -3391,19 +3391,19 @@
         <v>93</v>
       </c>
       <c r="T41" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="U41" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="V41" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="W41">
         <v>0</v>
       </c>
       <c r="X41">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:24">
@@ -3459,19 +3459,19 @@
         <v>93</v>
       </c>
       <c r="T42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="V42" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="W42">
         <v>0</v>
       </c>
       <c r="X42">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:24">
@@ -3527,13 +3527,13 @@
         <v>93</v>
       </c>
       <c r="T43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="U43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="V43" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="W43">
         <v>0</v>
@@ -3595,19 +3595,19 @@
         <v>93</v>
       </c>
       <c r="T44" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="U44" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="V44" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="W44">
         <v>0</v>
       </c>
       <c r="X44">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:24">
@@ -3663,19 +3663,19 @@
         <v>93</v>
       </c>
       <c r="T45" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="U45" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="V45" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="W45">
         <v>0</v>
       </c>
       <c r="X45">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:24">
@@ -3737,13 +3737,13 @@
         <v>99</v>
       </c>
       <c r="V46" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="W46">
         <v>0</v>
       </c>
       <c r="X46">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:24">
@@ -3799,19 +3799,19 @@
         <v>91</v>
       </c>
       <c r="T47" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="U47" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="V47" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="W47">
         <v>0</v>
       </c>
       <c r="X47">
-        <v>5</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:24">
@@ -3867,19 +3867,19 @@
         <v>91</v>
       </c>
       <c r="T48" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="U48" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="V48" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="W48">
         <v>0</v>
       </c>
       <c r="X48">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:24">
@@ -3941,13 +3941,13 @@
         <v>100</v>
       </c>
       <c r="V49" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="W49">
         <v>0</v>
       </c>
       <c r="X49">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:24">
@@ -4003,19 +4003,19 @@
         <v>93</v>
       </c>
       <c r="T50" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U50" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="V50" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="W50">
         <v>0</v>
       </c>
       <c r="X50">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:24">
@@ -4139,13 +4139,13 @@
         <v>93</v>
       </c>
       <c r="T52" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="U52" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="V52" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="W52">
         <v>0</v>
@@ -4213,13 +4213,13 @@
         <v>99</v>
       </c>
       <c r="V53" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="W53">
         <v>0</v>
       </c>
       <c r="X53">
-        <v>48</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" spans="1:24">
@@ -4275,19 +4275,19 @@
         <v>91</v>
       </c>
       <c r="T54" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="U54" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="V54" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="W54">
         <v>0</v>
       </c>
       <c r="X54">
-        <v>5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:24">
@@ -4343,19 +4343,19 @@
         <v>91</v>
       </c>
       <c r="T55" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="U55" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="V55" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="W55">
         <v>0</v>
       </c>
       <c r="X55">
-        <v>48</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:24">
@@ -4411,19 +4411,19 @@
         <v>91</v>
       </c>
       <c r="T56" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U56" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="V56" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="W56">
         <v>0</v>
       </c>
       <c r="X56">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="1:24">
